--- a/data/pca/factorExposure/factorExposure_2018-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.08833406010579518</v>
+        <v>-0.05775161748012478</v>
       </c>
       <c r="C2">
-        <v>0.05059607217904909</v>
+        <v>0.02899775723803483</v>
       </c>
       <c r="D2">
-        <v>-0.06474052724026189</v>
+        <v>0.01597698004678869</v>
       </c>
       <c r="E2">
-        <v>-0.002953953871683118</v>
+        <v>-0.03652895234552701</v>
       </c>
       <c r="F2">
-        <v>0.1192664561324175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1191551538626455</v>
+      </c>
+      <c r="G2">
+        <v>0.05287646441985458</v>
+      </c>
+      <c r="H2">
+        <v>-0.06821211407346593</v>
+      </c>
+      <c r="I2">
+        <v>0.1132100267075954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1900421726150829</v>
+        <v>-0.1389320450540008</v>
       </c>
       <c r="C3">
-        <v>-0.06292919701556708</v>
+        <v>0.03755796689483752</v>
       </c>
       <c r="D3">
-        <v>-0.1593073228551636</v>
+        <v>0.07828048540822952</v>
       </c>
       <c r="E3">
-        <v>0.0648018078968485</v>
+        <v>0.02363547946818231</v>
       </c>
       <c r="F3">
-        <v>0.3909047818256076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3989012692831693</v>
+      </c>
+      <c r="G3">
+        <v>0.2684557973161011</v>
+      </c>
+      <c r="H3">
+        <v>-0.1164591447590224</v>
+      </c>
+      <c r="I3">
+        <v>0.3920129246378551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07982913817934265</v>
+        <v>-0.06289028896195825</v>
       </c>
       <c r="C4">
-        <v>0.01382785323434496</v>
+        <v>0.008106243676704421</v>
       </c>
       <c r="D4">
-        <v>-0.067247955670917</v>
+        <v>0.04641847473350775</v>
       </c>
       <c r="E4">
-        <v>0.04731646838954485</v>
+        <v>-0.04335058264389938</v>
       </c>
       <c r="F4">
-        <v>0.06353354955588551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07594393144632194</v>
+      </c>
+      <c r="G4">
+        <v>0.01818350608607882</v>
+      </c>
+      <c r="H4">
+        <v>-0.04677127309323374</v>
+      </c>
+      <c r="I4">
+        <v>0.06804474487788061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0004783924265335082</v>
+        <v>-0.02784621994851311</v>
       </c>
       <c r="C6">
-        <v>-0.001581095513734715</v>
+        <v>0.003199400843820254</v>
       </c>
       <c r="D6">
-        <v>0.001078982432029723</v>
+        <v>0.01375332416161573</v>
       </c>
       <c r="E6">
-        <v>-0.001637424872162912</v>
+        <v>-0.00809835259480288</v>
       </c>
       <c r="F6">
-        <v>-0.0007616609557355394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.009839791277302001</v>
+      </c>
+      <c r="G6">
+        <v>-0.02122327009934187</v>
+      </c>
+      <c r="H6">
+        <v>0.01456708617524629</v>
+      </c>
+      <c r="I6">
+        <v>0.006710171046000683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03879684776187109</v>
+        <v>-0.03261024400424727</v>
       </c>
       <c r="C7">
-        <v>0.01856765209046326</v>
+        <v>-0.02383588210814237</v>
       </c>
       <c r="D7">
-        <v>-0.04597348036391236</v>
+        <v>0.02844700233613224</v>
       </c>
       <c r="E7">
-        <v>0.004456784467579878</v>
+        <v>-0.02865076262918409</v>
       </c>
       <c r="F7">
-        <v>0.07941272616456077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05329774596429471</v>
+      </c>
+      <c r="G7">
+        <v>0.04807615744565556</v>
+      </c>
+      <c r="H7">
+        <v>-0.009050304461568731</v>
+      </c>
+      <c r="I7">
+        <v>0.03726257508498791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03967711676220497</v>
+        <v>-0.01857289349334245</v>
       </c>
       <c r="C8">
-        <v>-0.009986580050805006</v>
+        <v>0.01081886682943014</v>
       </c>
       <c r="D8">
-        <v>-0.05876413806945322</v>
+        <v>0.04443072966762091</v>
       </c>
       <c r="E8">
-        <v>0.04513399461941912</v>
+        <v>-0.01807175329819131</v>
       </c>
       <c r="F8">
-        <v>0.06366873825905046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07274810303373284</v>
+      </c>
+      <c r="G8">
+        <v>0.04143471003799343</v>
+      </c>
+      <c r="H8">
+        <v>-0.04037394534828015</v>
+      </c>
+      <c r="I8">
+        <v>0.06340745763901791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06722868494999427</v>
+        <v>-0.05363825017081881</v>
       </c>
       <c r="C9">
-        <v>0.02128501823181116</v>
+        <v>0.002517989739916894</v>
       </c>
       <c r="D9">
-        <v>-0.05896155471793756</v>
+        <v>0.04056666553286062</v>
       </c>
       <c r="E9">
-        <v>0.05930567204725409</v>
+        <v>-0.0376198384711063</v>
       </c>
       <c r="F9">
-        <v>0.05080545536190474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0798533119167516</v>
+      </c>
+      <c r="G9">
+        <v>0.01561630185815915</v>
+      </c>
+      <c r="H9">
+        <v>-0.04706187747358338</v>
+      </c>
+      <c r="I9">
+        <v>0.04125293226780477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03494232797676268</v>
+        <v>-0.05057457079478411</v>
       </c>
       <c r="C10">
-        <v>0.07393268875115867</v>
+        <v>-0.06509892183947874</v>
       </c>
       <c r="D10">
-        <v>0.1226798861586311</v>
+        <v>-0.1473871265590321</v>
       </c>
       <c r="E10">
-        <v>-0.06036963121960452</v>
+        <v>0.04344065826988643</v>
       </c>
       <c r="F10">
-        <v>0.07350009365151702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05744358871357415</v>
+      </c>
+      <c r="G10">
+        <v>0.01886223656160866</v>
+      </c>
+      <c r="H10">
+        <v>-0.03608183062102602</v>
+      </c>
+      <c r="I10">
+        <v>0.03748773279951645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05060333977502346</v>
+        <v>-0.04346154212780204</v>
       </c>
       <c r="C11">
-        <v>-0.0007387759773639557</v>
+        <v>0.02088825466945503</v>
       </c>
       <c r="D11">
-        <v>-0.02906122199727546</v>
+        <v>0.02754393855862906</v>
       </c>
       <c r="E11">
-        <v>0.004524915289247375</v>
+        <v>-0.01137432211937965</v>
       </c>
       <c r="F11">
-        <v>0.04601859518497021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03749390125108916</v>
+      </c>
+      <c r="G11">
+        <v>-0.002848945353803566</v>
+      </c>
+      <c r="H11">
+        <v>-0.01390381699986838</v>
+      </c>
+      <c r="I11">
+        <v>0.03572421528418399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04195389833578889</v>
+        <v>-0.041032066765692</v>
       </c>
       <c r="C12">
-        <v>-0.001390852439885757</v>
+        <v>0.009374201696806446</v>
       </c>
       <c r="D12">
-        <v>-0.02921074306143974</v>
+        <v>0.03232491660327825</v>
       </c>
       <c r="E12">
-        <v>0.02415098647077011</v>
+        <v>-0.01400317067230899</v>
       </c>
       <c r="F12">
-        <v>0.03532750878790156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01576045921780593</v>
+      </c>
+      <c r="G12">
+        <v>0.004396533911529906</v>
+      </c>
+      <c r="H12">
+        <v>-0.006924475294923119</v>
+      </c>
+      <c r="I12">
+        <v>0.02579547592314941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04827712238114353</v>
+        <v>-0.03702436923754391</v>
       </c>
       <c r="C13">
-        <v>0.003419441455087564</v>
+        <v>0.02519724084478499</v>
       </c>
       <c r="D13">
-        <v>-0.04802295792683312</v>
+        <v>0.0158824849919166</v>
       </c>
       <c r="E13">
-        <v>-0.01230326510443508</v>
+        <v>-0.01069577098884725</v>
       </c>
       <c r="F13">
-        <v>0.1087363305917214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09530673730429365</v>
+      </c>
+      <c r="G13">
+        <v>0.03075752460332013</v>
+      </c>
+      <c r="H13">
+        <v>-0.03906449070489373</v>
+      </c>
+      <c r="I13">
+        <v>0.07591473893007915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02538159538421969</v>
+        <v>-0.02131042037021898</v>
       </c>
       <c r="C14">
-        <v>0.01369475609766977</v>
+        <v>0.003758340314375582</v>
       </c>
       <c r="D14">
-        <v>-0.04424981539743068</v>
+        <v>0.01881757595526378</v>
       </c>
       <c r="E14">
-        <v>0.01457277998639274</v>
+        <v>-0.0299090205873456</v>
       </c>
       <c r="F14">
-        <v>0.02648215909175113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03799627230060248</v>
+      </c>
+      <c r="G14">
+        <v>0.05216795609260853</v>
+      </c>
+      <c r="H14">
+        <v>-0.02379104455489251</v>
+      </c>
+      <c r="I14">
+        <v>0.01874924206173089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04121217281491266</v>
+        <v>-0.03692834358717513</v>
       </c>
       <c r="C16">
-        <v>-0.007487956933739624</v>
+        <v>0.01588529388718489</v>
       </c>
       <c r="D16">
-        <v>-0.02690116118692207</v>
+        <v>0.03026605213254902</v>
       </c>
       <c r="E16">
-        <v>0.00920811366536192</v>
+        <v>-0.008904389076795064</v>
       </c>
       <c r="F16">
-        <v>0.03714400069162674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03371619204018748</v>
+      </c>
+      <c r="G16">
+        <v>0.004275500235471722</v>
+      </c>
+      <c r="H16">
+        <v>-0.007525149750302305</v>
+      </c>
+      <c r="I16">
+        <v>0.03620227377669937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06136629954811788</v>
+        <v>-0.04763402993796331</v>
       </c>
       <c r="C19">
-        <v>-0.01496120725860152</v>
+        <v>0.02388353330638812</v>
       </c>
       <c r="D19">
-        <v>-0.05003249073939341</v>
+        <v>0.03665172897972066</v>
       </c>
       <c r="E19">
-        <v>0.01224172468742883</v>
+        <v>-0.01670903286675824</v>
       </c>
       <c r="F19">
-        <v>0.1002428155379387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09637718689680229</v>
+      </c>
+      <c r="G19">
+        <v>0.04814347283343612</v>
+      </c>
+      <c r="H19">
+        <v>-0.02967595275114817</v>
+      </c>
+      <c r="I19">
+        <v>0.08208575767342133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02143144629306488</v>
+        <v>-0.01402726090300972</v>
       </c>
       <c r="C20">
-        <v>0.00943192464842044</v>
+        <v>0.005842871639367093</v>
       </c>
       <c r="D20">
-        <v>-0.04917114722548688</v>
+        <v>0.0208975350589481</v>
       </c>
       <c r="E20">
-        <v>0.03183506477838936</v>
+        <v>-0.02106375861681073</v>
       </c>
       <c r="F20">
-        <v>0.06540034482732147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06106725775641737</v>
+      </c>
+      <c r="G20">
+        <v>0.06067633200224189</v>
+      </c>
+      <c r="H20">
+        <v>-0.01769000483228936</v>
+      </c>
+      <c r="I20">
+        <v>0.06989637415815574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02347867404983441</v>
+        <v>-0.0280277594306351</v>
       </c>
       <c r="C21">
-        <v>-0.01589467667150266</v>
+        <v>0.002042679323358052</v>
       </c>
       <c r="D21">
-        <v>-0.0430313263546319</v>
+        <v>0.02808671603729621</v>
       </c>
       <c r="E21">
-        <v>0.008338390169125015</v>
+        <v>-0.005752612429910583</v>
       </c>
       <c r="F21">
-        <v>0.08753203488217953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07167743875393713</v>
+      </c>
+      <c r="G21">
+        <v>0.005661126985914216</v>
+      </c>
+      <c r="H21">
+        <v>-0.0515008716829647</v>
+      </c>
+      <c r="I21">
+        <v>0.009635069925473208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04032588070102637</v>
+        <v>-0.03575339893654322</v>
       </c>
       <c r="C24">
-        <v>-0.003292054729169477</v>
+        <v>0.01355142832231951</v>
       </c>
       <c r="D24">
-        <v>-0.02909602733172897</v>
+        <v>0.02672088817785615</v>
       </c>
       <c r="E24">
-        <v>0.01336730403066288</v>
+        <v>-0.0110100881778658</v>
       </c>
       <c r="F24">
-        <v>0.04445863746383971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03553806612632261</v>
+      </c>
+      <c r="G24">
+        <v>-0.0002399919469454843</v>
+      </c>
+      <c r="H24">
+        <v>-0.008714335955187006</v>
+      </c>
+      <c r="I24">
+        <v>0.03781403900579858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04210694278382524</v>
+        <v>-0.04322187357844313</v>
       </c>
       <c r="C25">
-        <v>0.0004939448775100789</v>
+        <v>0.01308383927984216</v>
       </c>
       <c r="D25">
-        <v>-0.02731784785720686</v>
+        <v>0.02378848690270795</v>
       </c>
       <c r="E25">
-        <v>0.0138292418696396</v>
+        <v>-0.01209346296376872</v>
       </c>
       <c r="F25">
-        <v>0.04278279959578841</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04353721049111226</v>
+      </c>
+      <c r="G25">
+        <v>-0.008676302972705488</v>
+      </c>
+      <c r="H25">
+        <v>-0.01329266649399073</v>
+      </c>
+      <c r="I25">
+        <v>0.03045484962093985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02069915118818371</v>
+        <v>-0.01266195115553417</v>
       </c>
       <c r="C26">
-        <v>-0.009094009309053935</v>
+        <v>0.01666922287644279</v>
       </c>
       <c r="D26">
-        <v>-0.05110226314552068</v>
+        <v>0.02191714739881742</v>
       </c>
       <c r="E26">
-        <v>-0.006271005703332119</v>
+        <v>-0.0032959650945545</v>
       </c>
       <c r="F26">
-        <v>0.03807623174432326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04698237455312163</v>
+      </c>
+      <c r="G26">
+        <v>0.0289966334104083</v>
+      </c>
+      <c r="H26">
+        <v>-0.0141771845030549</v>
+      </c>
+      <c r="I26">
+        <v>0.03771110752260268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1066471606166627</v>
+        <v>-0.06164480088171265</v>
       </c>
       <c r="C27">
-        <v>0.02661550221366448</v>
+        <v>0.007221185959600278</v>
       </c>
       <c r="D27">
-        <v>-0.04495987540907873</v>
+        <v>0.01897951625304094</v>
       </c>
       <c r="E27">
-        <v>0.0353004267111435</v>
+        <v>-0.02814260488679307</v>
       </c>
       <c r="F27">
-        <v>0.05717689808569792</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.04800702583343116</v>
+      </c>
+      <c r="G27">
+        <v>0.03139203591463446</v>
+      </c>
+      <c r="H27">
+        <v>-0.02703455136877152</v>
+      </c>
+      <c r="I27">
+        <v>0.02316972580696927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04552718600888405</v>
+        <v>-0.07195095146006092</v>
       </c>
       <c r="C28">
-        <v>0.09895288305143651</v>
+        <v>-0.1054410833127438</v>
       </c>
       <c r="D28">
-        <v>0.2093593139128075</v>
+        <v>-0.2180611426391186</v>
       </c>
       <c r="E28">
-        <v>-0.0829881696865082</v>
+        <v>0.06616727291004991</v>
       </c>
       <c r="F28">
-        <v>0.05004418499524382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03923918727844367</v>
+      </c>
+      <c r="G28">
+        <v>0.03989132249188411</v>
+      </c>
+      <c r="H28">
+        <v>-0.03426432242679154</v>
+      </c>
+      <c r="I28">
+        <v>0.05950677977088452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02777391856999516</v>
+        <v>-0.02225199772695416</v>
       </c>
       <c r="C29">
-        <v>0.01284434360556362</v>
+        <v>0.001776117380934839</v>
       </c>
       <c r="D29">
-        <v>-0.04338139693479724</v>
+        <v>0.0210176537314028</v>
       </c>
       <c r="E29">
-        <v>0.02652711325705995</v>
+        <v>-0.03220664648748087</v>
       </c>
       <c r="F29">
-        <v>0.02167951689205344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03572732708452851</v>
+      </c>
+      <c r="G29">
+        <v>0.05460263561783159</v>
+      </c>
+      <c r="H29">
+        <v>-0.02986279675998057</v>
+      </c>
+      <c r="I29">
+        <v>0.004558508283312982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1016592445979803</v>
+        <v>-0.08445377070794427</v>
       </c>
       <c r="C30">
-        <v>0.03090069683916434</v>
+        <v>0.06005075479511789</v>
       </c>
       <c r="D30">
-        <v>-0.06536660680936078</v>
+        <v>0.02634692334228778</v>
       </c>
       <c r="E30">
-        <v>0.0136207872507597</v>
+        <v>-0.03731773766742245</v>
       </c>
       <c r="F30">
-        <v>0.1083009049163747</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1028772046591194</v>
+      </c>
+      <c r="G30">
+        <v>0.01493290612516196</v>
+      </c>
+      <c r="H30">
+        <v>0.001904867540814948</v>
+      </c>
+      <c r="I30">
+        <v>0.02429359933668245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06253730924679185</v>
+        <v>-0.057751837817748</v>
       </c>
       <c r="C31">
-        <v>0.01363892471846085</v>
+        <v>0.01632014522758376</v>
       </c>
       <c r="D31">
-        <v>-0.03313280381271258</v>
+        <v>0.009507372542375575</v>
       </c>
       <c r="E31">
-        <v>-0.03236980285528292</v>
+        <v>-0.02172638546727783</v>
       </c>
       <c r="F31">
-        <v>-0.01842660484592241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001750766183450938</v>
+      </c>
+      <c r="G31">
+        <v>0.0379040469545296</v>
+      </c>
+      <c r="H31">
+        <v>-0.04859442929723984</v>
+      </c>
+      <c r="I31">
+        <v>0.01585632508741349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05597678501482755</v>
+        <v>-0.03236842242651958</v>
       </c>
       <c r="C32">
-        <v>0.0003411876569234399</v>
+        <v>0.004999990997170147</v>
       </c>
       <c r="D32">
-        <v>-0.06357482978947658</v>
+        <v>0.04630618537638655</v>
       </c>
       <c r="E32">
-        <v>0.03628156622190967</v>
+        <v>-0.04033195339458273</v>
       </c>
       <c r="F32">
-        <v>0.08874546251094739</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07760730925595866</v>
+      </c>
+      <c r="G32">
+        <v>0.03089674962312434</v>
+      </c>
+      <c r="H32">
+        <v>-0.03058729261481008</v>
+      </c>
+      <c r="I32">
+        <v>0.06479363209314934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05281407002214307</v>
+        <v>-0.04537659193892119</v>
       </c>
       <c r="C33">
-        <v>-0.01143749681383003</v>
+        <v>0.04133180362735565</v>
       </c>
       <c r="D33">
-        <v>-0.07688459266832737</v>
+        <v>0.03788229186251266</v>
       </c>
       <c r="E33">
-        <v>0.01050819445091008</v>
+        <v>-0.01046224378330012</v>
       </c>
       <c r="F33">
-        <v>0.05964673665252162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07068062661598833</v>
+      </c>
+      <c r="G33">
+        <v>0.03635878560416621</v>
+      </c>
+      <c r="H33">
+        <v>-0.04197947302769865</v>
+      </c>
+      <c r="I33">
+        <v>0.03829581772961921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04183793398462916</v>
+        <v>-0.03858995875240898</v>
       </c>
       <c r="C34">
-        <v>0.003161458906240591</v>
+        <v>0.01136200514538072</v>
       </c>
       <c r="D34">
-        <v>-0.03317753065071791</v>
+        <v>0.03298261338485964</v>
       </c>
       <c r="E34">
-        <v>0.01455023163788684</v>
+        <v>-0.02076177878241303</v>
       </c>
       <c r="F34">
-        <v>0.03730842671494907</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03726509001897105</v>
+      </c>
+      <c r="G34">
+        <v>-0.00160855024363665</v>
+      </c>
+      <c r="H34">
+        <v>-0.01068452836587275</v>
+      </c>
+      <c r="I34">
+        <v>0.03761660564241906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01443091406059742</v>
+        <v>-0.01590666448131258</v>
       </c>
       <c r="C36">
-        <v>0.01099885455421009</v>
+        <v>-0.001605698333860799</v>
       </c>
       <c r="D36">
-        <v>-0.01378232745898858</v>
+        <v>0.003469539224096997</v>
       </c>
       <c r="E36">
-        <v>0.008517866213757552</v>
+        <v>-0.0101531491358363</v>
       </c>
       <c r="F36">
-        <v>0.02197934399224235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02772856415348863</v>
+      </c>
+      <c r="G36">
+        <v>0.02766217554608641</v>
+      </c>
+      <c r="H36">
+        <v>-0.02892714920226291</v>
+      </c>
+      <c r="I36">
+        <v>-0.008554271067428645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.03090238921851455</v>
+        <v>-0.02895593407714865</v>
       </c>
       <c r="C38">
-        <v>0.004884744036419401</v>
+        <v>0.001109947513362044</v>
       </c>
       <c r="D38">
-        <v>-0.006592591767033838</v>
+        <v>0.009937155606234616</v>
       </c>
       <c r="E38">
-        <v>0.01369634236396468</v>
+        <v>-0.005243908665295302</v>
       </c>
       <c r="F38">
-        <v>0.01456228691010906</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04523640791464008</v>
+      </c>
+      <c r="G38">
+        <v>0.01050649351119153</v>
+      </c>
+      <c r="H38">
+        <v>-0.03393354574607194</v>
+      </c>
+      <c r="I38">
+        <v>-0.001754576363645218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06333494362082165</v>
+        <v>-0.04888867845216772</v>
       </c>
       <c r="C39">
-        <v>0.004817155536097094</v>
+        <v>0.02894578138442563</v>
       </c>
       <c r="D39">
-        <v>-0.04564217818357324</v>
+        <v>0.04357201691080457</v>
       </c>
       <c r="E39">
-        <v>0.0008153976968563858</v>
+        <v>-0.02515526371732379</v>
       </c>
       <c r="F39">
-        <v>0.03836472361410743</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0555292433737647</v>
+      </c>
+      <c r="G39">
+        <v>-0.009541891801971554</v>
+      </c>
+      <c r="H39">
+        <v>-0.02250696562157762</v>
+      </c>
+      <c r="I39">
+        <v>0.02036493855135774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.06023922853028799</v>
+        <v>-0.04861902684403059</v>
       </c>
       <c r="C40">
-        <v>0.02158801805671273</v>
+        <v>0.03833810858614935</v>
       </c>
       <c r="D40">
-        <v>-0.07095719972965749</v>
+        <v>0.02613940300073658</v>
       </c>
       <c r="E40">
-        <v>-0.01616097647878139</v>
+        <v>-0.02791068698048541</v>
       </c>
       <c r="F40">
-        <v>0.09738349550737228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.08790492595409496</v>
+      </c>
+      <c r="G40">
+        <v>0.03161431184567305</v>
+      </c>
+      <c r="H40">
+        <v>-0.03590802819868912</v>
+      </c>
+      <c r="I40">
+        <v>0.1171194287586766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.005742980823348112</v>
+        <v>-0.0005859950689404078</v>
       </c>
       <c r="C41">
-        <v>-0.0003427305537005293</v>
+        <v>0.003458668193577205</v>
       </c>
       <c r="D41">
-        <v>-0.02963177917255161</v>
+        <v>0.004286253882955508</v>
       </c>
       <c r="E41">
-        <v>0.008671234044411783</v>
+        <v>-0.008809003165446267</v>
       </c>
       <c r="F41">
-        <v>-0.01150827650919246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.008998342823173293</v>
+      </c>
+      <c r="G41">
+        <v>0.03725758119483729</v>
+      </c>
+      <c r="H41">
+        <v>-0.04222333110718082</v>
+      </c>
+      <c r="I41">
+        <v>0.004110109640138184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2515377996006846</v>
+        <v>-0.2054719978750453</v>
       </c>
       <c r="C42">
-        <v>-0.8961711241340985</v>
+        <v>0.1719641743063759</v>
       </c>
       <c r="D42">
-        <v>0.2197280826039709</v>
+        <v>0.2930864954553143</v>
       </c>
       <c r="E42">
-        <v>-0.2169642990364701</v>
+        <v>0.8850519328295128</v>
       </c>
       <c r="F42">
-        <v>-0.03439573458166138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1678184858831378</v>
+      </c>
+      <c r="G42">
+        <v>0.003977908724778156</v>
+      </c>
+      <c r="H42">
+        <v>0.01165055091885635</v>
+      </c>
+      <c r="I42">
+        <v>0.04013867398375981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005509214438127088</v>
+        <v>-0.003340192986973503</v>
       </c>
       <c r="C43">
-        <v>-0.001542329633375089</v>
+        <v>0.006239066172406469</v>
       </c>
       <c r="D43">
-        <v>-0.03105626513886227</v>
+        <v>0.004252980637895774</v>
       </c>
       <c r="E43">
-        <v>0.004968414008101205</v>
+        <v>-0.007151029503458227</v>
       </c>
       <c r="F43">
-        <v>0.01770884121525777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01954905257706375</v>
+      </c>
+      <c r="G43">
+        <v>0.03093252561268601</v>
+      </c>
+      <c r="H43">
+        <v>-0.02306597510019941</v>
+      </c>
+      <c r="I43">
+        <v>0.01295594798752491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03264207439074765</v>
+        <v>-0.0224375080842735</v>
       </c>
       <c r="C44">
-        <v>-0.002732553053562112</v>
+        <v>0.01647112222373752</v>
       </c>
       <c r="D44">
-        <v>-0.0752086921470216</v>
+        <v>0.03437912568428699</v>
       </c>
       <c r="E44">
-        <v>0.02172858008004646</v>
+        <v>-0.01574427919793199</v>
       </c>
       <c r="F44">
-        <v>0.1117211510958346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1183695419965182</v>
+      </c>
+      <c r="G44">
+        <v>0.08463078137108851</v>
+      </c>
+      <c r="H44">
+        <v>-0.06660553021892165</v>
+      </c>
+      <c r="I44">
+        <v>0.05759279762034412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03043514260953437</v>
+        <v>-0.02255479121762461</v>
       </c>
       <c r="C46">
-        <v>0.004929550966475274</v>
+        <v>0.01909302957731219</v>
       </c>
       <c r="D46">
-        <v>-0.04931500808744299</v>
+        <v>0.0259642454161551</v>
       </c>
       <c r="E46">
-        <v>0.009233925407525512</v>
+        <v>-0.03250627094259732</v>
       </c>
       <c r="F46">
-        <v>0.01492621243455196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04768056625353117</v>
+      </c>
+      <c r="G46">
+        <v>0.05489947753621019</v>
+      </c>
+      <c r="H46">
+        <v>-0.02987415174141241</v>
+      </c>
+      <c r="I46">
+        <v>0.007891030539244694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08786814507417845</v>
+        <v>-0.08320276050829156</v>
       </c>
       <c r="C47">
-        <v>0.01750998120322407</v>
+        <v>0.01418033759199055</v>
       </c>
       <c r="D47">
-        <v>-0.03868209286188345</v>
+        <v>0.01915791678322376</v>
       </c>
       <c r="E47">
-        <v>0.009782966684742241</v>
+        <v>-0.03040325513885628</v>
       </c>
       <c r="F47">
-        <v>-0.02099272814065357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01770593822458552</v>
+      </c>
+      <c r="G47">
+        <v>0.06418986568710613</v>
+      </c>
+      <c r="H47">
+        <v>-0.04090565167691745</v>
+      </c>
+      <c r="I47">
+        <v>0.03047077430420658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01546263153900476</v>
+        <v>-0.02015625059443172</v>
       </c>
       <c r="C48">
-        <v>0.004803823492124352</v>
+        <v>0.006468888936863514</v>
       </c>
       <c r="D48">
-        <v>-0.03671190052448083</v>
+        <v>0.01294890220054681</v>
       </c>
       <c r="E48">
-        <v>0.01002960112220496</v>
+        <v>-0.01506938526101427</v>
       </c>
       <c r="F48">
-        <v>0.02484919517782278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02963239306625534</v>
+      </c>
+      <c r="G48">
+        <v>0.02000226428218531</v>
+      </c>
+      <c r="H48">
+        <v>-0.02055146366945183</v>
+      </c>
+      <c r="I48">
+        <v>0.01106662520391986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08833971231595268</v>
+        <v>-0.08377294696170426</v>
       </c>
       <c r="C50">
-        <v>0.004669493367365685</v>
+        <v>0.009734142019156414</v>
       </c>
       <c r="D50">
-        <v>-0.03794364267599695</v>
+        <v>0.03649133541681072</v>
       </c>
       <c r="E50">
-        <v>-0.01043266503460173</v>
+        <v>-0.023301936265954</v>
       </c>
       <c r="F50">
-        <v>-0.01753595405883206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.006895536344250589</v>
+      </c>
+      <c r="G50">
+        <v>0.04454729225524034</v>
+      </c>
+      <c r="H50">
+        <v>0.00176842336885937</v>
+      </c>
+      <c r="I50">
+        <v>-0.007478586484994162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05455477007487407</v>
+        <v>-0.03920666892431378</v>
       </c>
       <c r="C51">
-        <v>0.01828974687454999</v>
+        <v>0.009567557211774956</v>
       </c>
       <c r="D51">
-        <v>-0.02827872468814378</v>
+        <v>-0.008106975308814305</v>
       </c>
       <c r="E51">
-        <v>-0.03001495857937033</v>
+        <v>-0.01100600584910878</v>
       </c>
       <c r="F51">
-        <v>0.05490329425782211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08229076900480259</v>
+      </c>
+      <c r="G51">
+        <v>0.05862484151882494</v>
+      </c>
+      <c r="H51">
+        <v>-0.06312512841018564</v>
+      </c>
+      <c r="I51">
+        <v>0.03712628299509023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1256364964167176</v>
+        <v>-0.1158416544739228</v>
       </c>
       <c r="C53">
-        <v>0.02805252373971932</v>
+        <v>0.02378575540792005</v>
       </c>
       <c r="D53">
-        <v>-0.05557725437508746</v>
+        <v>0.03448119647541458</v>
       </c>
       <c r="E53">
-        <v>-0.005896255182306665</v>
+        <v>-0.05668327011385878</v>
       </c>
       <c r="F53">
-        <v>-0.07507665340345675</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0582759629029656</v>
+      </c>
+      <c r="G53">
+        <v>0.02856483170999904</v>
+      </c>
+      <c r="H53">
+        <v>-0.02572806681067127</v>
+      </c>
+      <c r="I53">
+        <v>0.03220931237693526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02404385250943395</v>
+        <v>-0.02551860522488688</v>
       </c>
       <c r="C54">
-        <v>0.01914283904603754</v>
+        <v>-0.001485664909811075</v>
       </c>
       <c r="D54">
-        <v>-0.03198435829263695</v>
+        <v>0.005534054314743055</v>
       </c>
       <c r="E54">
-        <v>0.01549449584451426</v>
+        <v>-0.03048256461363606</v>
       </c>
       <c r="F54">
-        <v>0.03319797823493133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03634632533634366</v>
+      </c>
+      <c r="G54">
+        <v>0.05110174914727783</v>
+      </c>
+      <c r="H54">
+        <v>-0.03923472824773511</v>
+      </c>
+      <c r="I54">
+        <v>0.003116857219926437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1051268338910055</v>
+        <v>-0.09394126475656218</v>
       </c>
       <c r="C55">
-        <v>0.024370516619927</v>
+        <v>0.006454485728690213</v>
       </c>
       <c r="D55">
-        <v>-0.01258061498795164</v>
+        <v>0.03777726720143133</v>
       </c>
       <c r="E55">
-        <v>0.03302717031353465</v>
+        <v>-0.04080391356947755</v>
       </c>
       <c r="F55">
-        <v>-0.03093889989113957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04436665078138696</v>
+      </c>
+      <c r="G55">
+        <v>0.04704129373041126</v>
+      </c>
+      <c r="H55">
+        <v>0.005140480569927405</v>
+      </c>
+      <c r="I55">
+        <v>0.007842338638145227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1631966356338095</v>
+        <v>-0.1581335477753805</v>
       </c>
       <c r="C56">
-        <v>0.07784222208460326</v>
+        <v>0.01728791531611434</v>
       </c>
       <c r="D56">
-        <v>-0.03844947039517697</v>
+        <v>0.02706779025354598</v>
       </c>
       <c r="E56">
-        <v>0.01398265960638059</v>
+        <v>-0.09146208344342806</v>
       </c>
       <c r="F56">
-        <v>-0.1073765746519206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1008447293902782</v>
+      </c>
+      <c r="G56">
+        <v>-0.003917583846986472</v>
+      </c>
+      <c r="H56">
+        <v>0.02531808793433489</v>
+      </c>
+      <c r="I56">
+        <v>0.03133013082975547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06431595267967949</v>
+        <v>-0.05547717289953764</v>
       </c>
       <c r="C57">
-        <v>0.01045798523754779</v>
+        <v>0.02817022802108061</v>
       </c>
       <c r="D57">
-        <v>-0.04874431979580297</v>
+        <v>0.01491999439136374</v>
       </c>
       <c r="E57">
-        <v>-0.01385170178007067</v>
+        <v>-0.006042479586625479</v>
       </c>
       <c r="F57">
-        <v>0.05892759128190343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06149542426220587</v>
+      </c>
+      <c r="G57">
+        <v>0.01615062006009499</v>
+      </c>
+      <c r="H57">
+        <v>-0.02100532916280097</v>
+      </c>
+      <c r="I57">
+        <v>0.03228010366535868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1952545553791952</v>
+        <v>-0.1973336165235504</v>
       </c>
       <c r="C58">
-        <v>-0.005303002767412923</v>
+        <v>0.1421763254575149</v>
       </c>
       <c r="D58">
-        <v>-0.1231517183426437</v>
+        <v>0.07088981278616134</v>
       </c>
       <c r="E58">
-        <v>0.000370611337308886</v>
+        <v>0.01744158028743429</v>
       </c>
       <c r="F58">
-        <v>0.2288000206801102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.3646710643527567</v>
+      </c>
+      <c r="G58">
+        <v>0.3616874074432482</v>
+      </c>
+      <c r="H58">
+        <v>0.2466946320530472</v>
+      </c>
+      <c r="I58">
+        <v>-0.7276938181660834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.03651969140995234</v>
+        <v>-0.06923533721536886</v>
       </c>
       <c r="C59">
-        <v>0.1060411701447265</v>
+        <v>-0.07378586159130766</v>
       </c>
       <c r="D59">
-        <v>0.1552365869307221</v>
+        <v>-0.1928075682437524</v>
       </c>
       <c r="E59">
-        <v>-0.06242421242535341</v>
+        <v>0.0329715668356872</v>
       </c>
       <c r="F59">
-        <v>0.04862743885987997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.05575793269940239</v>
+      </c>
+      <c r="G59">
+        <v>-0.007419990032892574</v>
+      </c>
+      <c r="H59">
+        <v>-0.008990337981657647</v>
+      </c>
+      <c r="I59">
+        <v>0.008272420341631016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1821858336814141</v>
+        <v>-0.1998139939928675</v>
       </c>
       <c r="C60">
-        <v>0.0586652683880532</v>
+        <v>0.03182914163731861</v>
       </c>
       <c r="D60">
-        <v>0.00964430620979923</v>
+        <v>-0.06400608895510165</v>
       </c>
       <c r="E60">
-        <v>-0.08138706468638977</v>
+        <v>-0.01172774295914813</v>
       </c>
       <c r="F60">
-        <v>0.1388838332591023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.17928641458819</v>
+      </c>
+      <c r="G60">
+        <v>-0.3517091592455442</v>
+      </c>
+      <c r="H60">
+        <v>0.04688389052740023</v>
+      </c>
+      <c r="I60">
+        <v>0.02991203191747859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03345571850673219</v>
+        <v>-0.03642386368081439</v>
       </c>
       <c r="C61">
-        <v>0.001648428601783663</v>
+        <v>0.01526269971595082</v>
       </c>
       <c r="D61">
-        <v>-0.02550446701489095</v>
+        <v>0.03174156150453682</v>
       </c>
       <c r="E61">
-        <v>0.01462455976511122</v>
+        <v>-0.0173008282553558</v>
       </c>
       <c r="F61">
-        <v>0.04137262334575291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.04020800451330023</v>
+      </c>
+      <c r="G61">
+        <v>-0.01845895767584466</v>
+      </c>
+      <c r="H61">
+        <v>-0.01111256120097652</v>
+      </c>
+      <c r="I61">
+        <v>0.009722607626055806</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.0305052471825674</v>
+        <v>-0.02592654601686696</v>
       </c>
       <c r="C63">
-        <v>0.01163570640369484</v>
+        <v>0.01096198203769421</v>
       </c>
       <c r="D63">
-        <v>-0.03696692491661614</v>
+        <v>0.01958258756415822</v>
       </c>
       <c r="E63">
-        <v>0.008294646461979381</v>
+        <v>-0.01887014470186596</v>
       </c>
       <c r="F63">
-        <v>0.04876890846591389</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03256722915245679</v>
+      </c>
+      <c r="G63">
+        <v>0.04741335598723388</v>
+      </c>
+      <c r="H63">
+        <v>-0.01272345577821698</v>
+      </c>
+      <c r="I63">
+        <v>0.03109176983201623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0519020752441821</v>
+        <v>-0.05304227229371896</v>
       </c>
       <c r="C64">
-        <v>0.004218085767763491</v>
+        <v>0.008335468028925397</v>
       </c>
       <c r="D64">
-        <v>-0.05163521782151531</v>
+        <v>0.03919137492847743</v>
       </c>
       <c r="E64">
-        <v>0.04989705230368243</v>
+        <v>-0.02562499292824665</v>
       </c>
       <c r="F64">
-        <v>0.031848871928084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03962773070166684</v>
+      </c>
+      <c r="G64">
+        <v>0.01916733478167365</v>
+      </c>
+      <c r="H64">
+        <v>-0.0652239803380769</v>
+      </c>
+      <c r="I64">
+        <v>0.04598445803399493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0007526720887394701</v>
+        <v>-0.03112430997593443</v>
       </c>
       <c r="C65">
-        <v>-0.002231533619027381</v>
+        <v>0.003199501723880542</v>
       </c>
       <c r="D65">
-        <v>0.001327244629858106</v>
+        <v>0.01404836386749699</v>
       </c>
       <c r="E65">
-        <v>-0.001937226315739653</v>
+        <v>-0.00818965982000746</v>
       </c>
       <c r="F65">
-        <v>-0.0007250397083475745</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.006670212724468065</v>
+      </c>
+      <c r="G65">
+        <v>-0.02581381131744983</v>
+      </c>
+      <c r="H65">
+        <v>0.0125644304768027</v>
+      </c>
+      <c r="I65">
+        <v>0.006380617627118777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06290567446644736</v>
+        <v>-0.0588409511654639</v>
       </c>
       <c r="C66">
-        <v>0.01841457807818256</v>
+        <v>0.03846622045508039</v>
       </c>
       <c r="D66">
-        <v>-0.06899231104917472</v>
+        <v>0.04497325260814775</v>
       </c>
       <c r="E66">
-        <v>0.02303278257443483</v>
+        <v>-0.05049450062481288</v>
       </c>
       <c r="F66">
-        <v>0.07886826063671967</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0697489929774458</v>
+      </c>
+      <c r="G66">
+        <v>-0.01570169178155089</v>
+      </c>
+      <c r="H66">
+        <v>-0.008306841493231796</v>
+      </c>
+      <c r="I66">
+        <v>0.0598011281667237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.04832085578157091</v>
+        <v>-0.0468018523137275</v>
       </c>
       <c r="C67">
-        <v>0.01222379887016461</v>
+        <v>0.0001387502811067856</v>
       </c>
       <c r="D67">
-        <v>0.007901462992299747</v>
+        <v>-0.002264102739475678</v>
       </c>
       <c r="E67">
-        <v>0.001137240225213665</v>
+        <v>-0.006746431376443751</v>
       </c>
       <c r="F67">
-        <v>0.01869207057546486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03547870005043215</v>
+      </c>
+      <c r="G67">
+        <v>-0.01469442481893262</v>
+      </c>
+      <c r="H67">
+        <v>-0.04447622190674982</v>
+      </c>
+      <c r="I67">
+        <v>-0.006720506759693109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06542621778597545</v>
+        <v>-0.0785296453691597</v>
       </c>
       <c r="C68">
-        <v>0.1038083423883788</v>
+        <v>-0.08959615327081157</v>
       </c>
       <c r="D68">
-        <v>0.2016029212735509</v>
+        <v>-0.2105193242897618</v>
       </c>
       <c r="E68">
-        <v>-0.07359031190566741</v>
+        <v>0.05264872136512622</v>
       </c>
       <c r="F68">
-        <v>0.031895709371727</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01927688886181032</v>
+      </c>
+      <c r="G68">
+        <v>0.04479635226971453</v>
+      </c>
+      <c r="H68">
+        <v>0.01164848954238605</v>
+      </c>
+      <c r="I68">
+        <v>-0.001344979178724476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07497965215992887</v>
+        <v>-0.06837687241340036</v>
       </c>
       <c r="C69">
-        <v>0.02003780486499895</v>
+        <v>0.01514817679802821</v>
       </c>
       <c r="D69">
-        <v>-0.02241718149934192</v>
+        <v>0.01469321089021224</v>
       </c>
       <c r="E69">
-        <v>-0.002910833653750094</v>
+        <v>-0.03136333038337198</v>
       </c>
       <c r="F69">
-        <v>-0.007333843078871468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.003740310258871178</v>
+      </c>
+      <c r="G69">
+        <v>0.04033478812245351</v>
+      </c>
+      <c r="H69">
+        <v>-0.03132200261750263</v>
+      </c>
+      <c r="I69">
+        <v>0.02157914877523068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06357004089626939</v>
+        <v>-0.07683748572394775</v>
       </c>
       <c r="C71">
-        <v>0.129183084419074</v>
+        <v>-0.09702166795745396</v>
       </c>
       <c r="D71">
-        <v>0.249387885153029</v>
+        <v>-0.2386548773247585</v>
       </c>
       <c r="E71">
-        <v>-0.1315102552529324</v>
+        <v>0.07182016087418765</v>
       </c>
       <c r="F71">
-        <v>0.07878936927188745</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04689321647053587</v>
+      </c>
+      <c r="G71">
+        <v>0.0300309905700549</v>
+      </c>
+      <c r="H71">
+        <v>-0.01695767823402986</v>
+      </c>
+      <c r="I71">
+        <v>0.01813687467388267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1313249141953422</v>
+        <v>-0.1353525820224182</v>
       </c>
       <c r="C72">
-        <v>0.06830488656896967</v>
+        <v>0.03564970504831922</v>
       </c>
       <c r="D72">
-        <v>-0.04280507789373299</v>
+        <v>0.03166650621695687</v>
       </c>
       <c r="E72">
-        <v>0.01002523534674141</v>
+        <v>-0.08692486835348098</v>
       </c>
       <c r="F72">
-        <v>0.07650099978905778</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09548995714883551</v>
+      </c>
+      <c r="G72">
+        <v>-0.1014698727206044</v>
+      </c>
+      <c r="H72">
+        <v>0.01983439156026702</v>
+      </c>
+      <c r="I72">
+        <v>-0.1393677049147989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2875693709101481</v>
+        <v>-0.288173879526409</v>
       </c>
       <c r="C73">
-        <v>0.07277054526239901</v>
+        <v>0.06766920664938257</v>
       </c>
       <c r="D73">
-        <v>0.05090698031264839</v>
+        <v>-0.07739464276168451</v>
       </c>
       <c r="E73">
-        <v>-0.1077563310483886</v>
+        <v>0.0301229790032718</v>
       </c>
       <c r="F73">
-        <v>0.2407817857777448</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.259049524152242</v>
+      </c>
+      <c r="G73">
+        <v>-0.5259218134511587</v>
+      </c>
+      <c r="H73">
+        <v>0.1208780944150002</v>
+      </c>
+      <c r="I73">
+        <v>-0.009361999204704112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1455079979296065</v>
+        <v>-0.1411783490977824</v>
       </c>
       <c r="C74">
-        <v>0.02782838355628565</v>
+        <v>0.03004041309026921</v>
       </c>
       <c r="D74">
-        <v>-0.03890216698047386</v>
+        <v>0.03901041290905162</v>
       </c>
       <c r="E74">
-        <v>0.0011359952672438</v>
+        <v>-0.05611022914994844</v>
       </c>
       <c r="F74">
-        <v>-0.05626206706478777</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07974575412323381</v>
+      </c>
+      <c r="G74">
+        <v>-0.007668057576204697</v>
+      </c>
+      <c r="H74">
+        <v>0.02163182646296843</v>
+      </c>
+      <c r="I74">
+        <v>0.07447504773606249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2275066084550522</v>
+        <v>-0.2458171509398094</v>
       </c>
       <c r="C75">
-        <v>0.07746056685088677</v>
+        <v>0.04981784304648797</v>
       </c>
       <c r="D75">
-        <v>-0.07301629339951517</v>
+        <v>0.0293819015490789</v>
       </c>
       <c r="E75">
-        <v>-0.0169756064261658</v>
+        <v>-0.1241061842326119</v>
       </c>
       <c r="F75">
-        <v>-0.1397044284977023</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1492792465148564</v>
+      </c>
+      <c r="G75">
+        <v>0.0189365052366461</v>
+      </c>
+      <c r="H75">
+        <v>-0.004819388808499758</v>
+      </c>
+      <c r="I75">
+        <v>0.0222171110337226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2611359084996507</v>
+        <v>-0.2583400081816432</v>
       </c>
       <c r="C76">
-        <v>0.1015506832254082</v>
+        <v>0.009903960849791381</v>
       </c>
       <c r="D76">
-        <v>-0.03674252153990865</v>
+        <v>0.03803480513161756</v>
       </c>
       <c r="E76">
-        <v>0.04190848742933007</v>
+        <v>-0.1468457257059724</v>
       </c>
       <c r="F76">
-        <v>-0.1410652279236093</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1985064850029472</v>
+      </c>
+      <c r="G76">
+        <v>0.03606497998371043</v>
+      </c>
+      <c r="H76">
+        <v>0.07455363736762231</v>
+      </c>
+      <c r="I76">
+        <v>0.03212303718750939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.138542254323383</v>
+        <v>-0.1055640627700221</v>
       </c>
       <c r="C77">
-        <v>-0.05799520793708358</v>
+        <v>0.04290744616730326</v>
       </c>
       <c r="D77">
-        <v>-0.07289848164681945</v>
+        <v>0.07124868764464726</v>
       </c>
       <c r="E77">
-        <v>0.02161788020886795</v>
+        <v>0.03694933594984213</v>
       </c>
       <c r="F77">
-        <v>0.1993200539632458</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1665349052939886</v>
+      </c>
+      <c r="G77">
+        <v>0.2304928397565456</v>
+      </c>
+      <c r="H77">
+        <v>0.005223654661798926</v>
+      </c>
+      <c r="I77">
+        <v>0.2346702422926917</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.084036484305336</v>
+        <v>-0.06352183044746737</v>
       </c>
       <c r="C78">
-        <v>-0.02815649925919744</v>
+        <v>0.03052747500293231</v>
       </c>
       <c r="D78">
-        <v>-0.08637742115750656</v>
+        <v>0.06540169178612079</v>
       </c>
       <c r="E78">
-        <v>0.03711009433668065</v>
+        <v>-0.02341118822364303</v>
       </c>
       <c r="F78">
-        <v>0.03788161630607352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07245770077666638</v>
+      </c>
+      <c r="G78">
+        <v>0.02520226718441173</v>
+      </c>
+      <c r="H78">
+        <v>-0.02723148854405793</v>
+      </c>
+      <c r="I78">
+        <v>0.04112049587212293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1276064758934999</v>
+        <v>-0.1472124132345174</v>
       </c>
       <c r="C80">
-        <v>-0.09790837239587544</v>
+        <v>-0.8848625353288005</v>
       </c>
       <c r="D80">
-        <v>0.3693164590703547</v>
+        <v>0.4102099010030598</v>
       </c>
       <c r="E80">
-        <v>0.8935271636570908</v>
+        <v>0.02440149129716623</v>
       </c>
       <c r="F80">
-        <v>0.01335641137564526</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06194384780918772</v>
+      </c>
+      <c r="G80">
+        <v>-0.05529305354495979</v>
+      </c>
+      <c r="H80">
+        <v>-0.0313743909115175</v>
+      </c>
+      <c r="I80">
+        <v>-0.08808134606624478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1649079592075454</v>
+        <v>-0.1825240654523112</v>
       </c>
       <c r="C81">
-        <v>0.05776799604031627</v>
+        <v>0.02099422640015267</v>
       </c>
       <c r="D81">
-        <v>-0.03782547513796602</v>
+        <v>0.02647651335636032</v>
       </c>
       <c r="E81">
-        <v>0.006640389292007479</v>
+        <v>-0.1022723283396833</v>
       </c>
       <c r="F81">
-        <v>-0.1551600107548968</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1493951822856353</v>
+      </c>
+      <c r="G81">
+        <v>0.0456950083786806</v>
+      </c>
+      <c r="H81">
+        <v>0.03358894383546238</v>
+      </c>
+      <c r="I81">
+        <v>0.004649923918879764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06592091160296966</v>
+        <v>-0.05351840528119966</v>
       </c>
       <c r="C83">
-        <v>-0.05682749603934453</v>
+        <v>0.03334610244467139</v>
       </c>
       <c r="D83">
-        <v>-0.06922945323138834</v>
+        <v>0.04285136946189633</v>
       </c>
       <c r="E83">
-        <v>0.00142419239164685</v>
+        <v>0.01875112827394139</v>
       </c>
       <c r="F83">
-        <v>0.02453515495236041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04667466671602331</v>
+      </c>
+      <c r="G83">
+        <v>0.02510430354769859</v>
+      </c>
+      <c r="H83">
+        <v>-0.04678697364853941</v>
+      </c>
+      <c r="I83">
+        <v>0.04084350246277091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2285327376277207</v>
+        <v>-0.2425628404554994</v>
       </c>
       <c r="C85">
-        <v>0.04315862240982783</v>
+        <v>0.04423097305765668</v>
       </c>
       <c r="D85">
-        <v>-0.05903166979230125</v>
+        <v>0.05707989260508899</v>
       </c>
       <c r="E85">
-        <v>0.03494292710390103</v>
+        <v>-0.1095792736575339</v>
       </c>
       <c r="F85">
-        <v>-0.1682941636094225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1914890619282964</v>
+      </c>
+      <c r="G85">
+        <v>0.04571530220369611</v>
+      </c>
+      <c r="H85">
+        <v>0.01082283916190299</v>
+      </c>
+      <c r="I85">
+        <v>0.02909528499977605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02859332048827191</v>
+        <v>-0.02283127370473318</v>
       </c>
       <c r="C86">
-        <v>-0.01115295487972422</v>
+        <v>0.0230872901093751</v>
       </c>
       <c r="D86">
-        <v>-0.06659119004644969</v>
+        <v>0.03755799517577093</v>
       </c>
       <c r="E86">
-        <v>0.01204285511317733</v>
+        <v>-0.01627016126796294</v>
       </c>
       <c r="F86">
-        <v>0.08314432530986755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08800175837304521</v>
+      </c>
+      <c r="G86">
+        <v>0.05681313239965238</v>
+      </c>
+      <c r="H86">
+        <v>-0.01556970190581027</v>
+      </c>
+      <c r="I86">
+        <v>0.06745269130364283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01669094587187873</v>
+        <v>-0.02570960401909718</v>
       </c>
       <c r="C87">
-        <v>0.0218048014292923</v>
+        <v>-0.005082507767368121</v>
       </c>
       <c r="D87">
-        <v>0.03354161507358742</v>
+        <v>-0.003615813076836218</v>
       </c>
       <c r="E87">
-        <v>-0.009678740940631298</v>
+        <v>0.004307234039769552</v>
       </c>
       <c r="F87">
-        <v>0.1035120394160356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1082088050664046</v>
+      </c>
+      <c r="G87">
+        <v>0.01080256224156083</v>
+      </c>
+      <c r="H87">
+        <v>0.009584017442866709</v>
+      </c>
+      <c r="I87">
+        <v>0.05098518013757673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01970516303988356</v>
+        <v>-0.03248866693558972</v>
       </c>
       <c r="C88">
-        <v>0.007968678788665815</v>
+        <v>-0.004328339180211865</v>
       </c>
       <c r="D88">
-        <v>-0.0004862116444589625</v>
+        <v>-0.001077267651766468</v>
       </c>
       <c r="E88">
-        <v>0.01980723236571543</v>
+        <v>-0.008324030777424662</v>
       </c>
       <c r="F88">
-        <v>-0.01205636772201868</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.005769128390032132</v>
+      </c>
+      <c r="G88">
+        <v>-0.005232436937823095</v>
+      </c>
+      <c r="H88">
+        <v>-0.05466609388120392</v>
+      </c>
+      <c r="I88">
+        <v>0.002812623957060164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.09470980081400604</v>
+        <v>-0.1298650771245147</v>
       </c>
       <c r="C89">
-        <v>0.1278384209276071</v>
+        <v>-0.1235030779074057</v>
       </c>
       <c r="D89">
-        <v>0.3009508602011995</v>
+        <v>-0.3538939639692059</v>
       </c>
       <c r="E89">
-        <v>-0.1510197692497693</v>
+        <v>0.1005660467235026</v>
       </c>
       <c r="F89">
-        <v>0.05378844485339911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03245510763999726</v>
+      </c>
+      <c r="G89">
+        <v>0.09757293567019606</v>
+      </c>
+      <c r="H89">
+        <v>-0.03028484754501</v>
+      </c>
+      <c r="I89">
+        <v>0.05261666989774557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.07728877211825377</v>
+        <v>-0.08950813128905463</v>
       </c>
       <c r="C90">
-        <v>0.1166341286241455</v>
+        <v>-0.1238519871736938</v>
       </c>
       <c r="D90">
-        <v>0.2782371306545778</v>
+        <v>-0.2971303747370658</v>
       </c>
       <c r="E90">
-        <v>-0.08253488020585314</v>
+        <v>0.08664416448458327</v>
       </c>
       <c r="F90">
-        <v>0.05771936000416037</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.00561041536740229</v>
+      </c>
+      <c r="G90">
+        <v>0.08707834790551734</v>
+      </c>
+      <c r="H90">
+        <v>-0.01868397733232197</v>
+      </c>
+      <c r="I90">
+        <v>0.0187995974412143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2895323398107179</v>
+        <v>-0.286193034024889</v>
       </c>
       <c r="C91">
-        <v>0.05273683785246976</v>
+        <v>0.05719857211446708</v>
       </c>
       <c r="D91">
-        <v>-0.08288734710030314</v>
+        <v>0.06980352307615356</v>
       </c>
       <c r="E91">
-        <v>0.02440157486252837</v>
+        <v>-0.1171734506227054</v>
       </c>
       <c r="F91">
-        <v>-0.2463236756620834</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2598740012860593</v>
+      </c>
+      <c r="G91">
+        <v>0.05805610625969011</v>
+      </c>
+      <c r="H91">
+        <v>0.0590701236679527</v>
+      </c>
+      <c r="I91">
+        <v>0.03389691015381457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1029977049934185</v>
+        <v>-0.1660200920703734</v>
       </c>
       <c r="C92">
-        <v>0.08062016381600362</v>
+        <v>-0.1524871225837756</v>
       </c>
       <c r="D92">
-        <v>0.3512479078326526</v>
+        <v>-0.3185320632712204</v>
       </c>
       <c r="E92">
-        <v>-0.09333089970639394</v>
+        <v>0.1278832892061837</v>
       </c>
       <c r="F92">
-        <v>-0.03127734089708822</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09710796653359112</v>
+      </c>
+      <c r="G92">
+        <v>0.2282617946708589</v>
+      </c>
+      <c r="H92">
+        <v>-0.0794155021431432</v>
+      </c>
+      <c r="I92">
+        <v>-0.07237556458879935</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.07697077309264252</v>
+        <v>-0.1121160151057735</v>
       </c>
       <c r="C93">
-        <v>0.1307347370007035</v>
+        <v>-0.1407223883154867</v>
       </c>
       <c r="D93">
-        <v>0.3495119165539137</v>
+        <v>-0.3614914300611771</v>
       </c>
       <c r="E93">
-        <v>-0.1228894676132602</v>
+        <v>0.1322570067879912</v>
       </c>
       <c r="F93">
-        <v>-0.01109489974823488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02589278002696481</v>
+      </c>
+      <c r="G93">
+        <v>0.02699521502223595</v>
+      </c>
+      <c r="H93">
+        <v>-0.05242837830275702</v>
+      </c>
+      <c r="I93">
+        <v>-0.02753926654726224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2726820933116778</v>
+        <v>-0.3010759529540142</v>
       </c>
       <c r="C94">
-        <v>0.09351546036611115</v>
+        <v>0.03545571902148091</v>
       </c>
       <c r="D94">
-        <v>0.02745535169264474</v>
+        <v>-0.01198160165795852</v>
       </c>
       <c r="E94">
-        <v>-0.01227774070470211</v>
+        <v>-0.1240127486649839</v>
       </c>
       <c r="F94">
-        <v>-0.2149460595388847</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2742359626867158</v>
+      </c>
+      <c r="G94">
+        <v>0.09727057928125042</v>
+      </c>
+      <c r="H94">
+        <v>0.2010990286130382</v>
+      </c>
+      <c r="I94">
+        <v>0.02735774783954019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1594395013383875</v>
+        <v>-0.1307674152669365</v>
       </c>
       <c r="C95">
-        <v>-0.0187345477774341</v>
+        <v>0.1138482393383979</v>
       </c>
       <c r="D95">
-        <v>-0.1537922572609189</v>
+        <v>0.03866950177512789</v>
       </c>
       <c r="E95">
-        <v>-0.03082795452704089</v>
+        <v>-0.03889733365422942</v>
       </c>
       <c r="F95">
-        <v>-0.494295992302605</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08518559561411936</v>
+      </c>
+      <c r="G95">
+        <v>-0.1016746019475648</v>
+      </c>
+      <c r="H95">
+        <v>-0.8828948279223809</v>
+      </c>
+      <c r="I95">
+        <v>-0.299716724415353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2103706991311019</v>
+        <v>-0.2203836657256456</v>
       </c>
       <c r="C98">
-        <v>0.04026599656448702</v>
+        <v>0.04031411014910644</v>
       </c>
       <c r="D98">
-        <v>0.03518367353565505</v>
+        <v>-0.07176086471016802</v>
       </c>
       <c r="E98">
-        <v>-0.09545734014485123</v>
+        <v>0.02618597625422881</v>
       </c>
       <c r="F98">
-        <v>0.06067111701458985</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1705560864837218</v>
+      </c>
+      <c r="G98">
+        <v>-0.3833589091854603</v>
+      </c>
+      <c r="H98">
+        <v>0.06142150535247907</v>
+      </c>
+      <c r="I98">
+        <v>-0.04742806525582152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.007187096622911676</v>
+        <v>-0.0156002705282552</v>
       </c>
       <c r="C101">
-        <v>0.02126673450767382</v>
+        <v>0.009981786803035166</v>
       </c>
       <c r="D101">
-        <v>-0.0659002268892887</v>
+        <v>0.02680494133266745</v>
       </c>
       <c r="E101">
-        <v>0.03359394717456859</v>
+        <v>-0.03977597027054082</v>
       </c>
       <c r="F101">
-        <v>0.0220352059318641</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07655359687087264</v>
+      </c>
+      <c r="G101">
+        <v>0.1073812108143973</v>
+      </c>
+      <c r="H101">
+        <v>-0.004607971785114154</v>
+      </c>
+      <c r="I101">
+        <v>-0.1217303663041901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09847154126661239</v>
+        <v>-0.1153137298113892</v>
       </c>
       <c r="C102">
-        <v>0.02972317921389132</v>
+        <v>0.01300710233117958</v>
       </c>
       <c r="D102">
-        <v>-0.03826179892253636</v>
+        <v>0.02918335979056307</v>
       </c>
       <c r="E102">
-        <v>0.02963649524324444</v>
+        <v>-0.05739900772345261</v>
       </c>
       <c r="F102">
-        <v>-0.08557041013121679</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1069409268392632</v>
+      </c>
+      <c r="G102">
+        <v>0.02271819266520816</v>
+      </c>
+      <c r="H102">
+        <v>0.006860382984225978</v>
+      </c>
+      <c r="I102">
+        <v>0.03657335931700061</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.0229439432766984</v>
+        <v>-0.02837310783233191</v>
       </c>
       <c r="C103">
-        <v>0.0134580538704391</v>
+        <v>-0.002724519932591981</v>
       </c>
       <c r="D103">
-        <v>-0.01078635299592683</v>
+        <v>0.01164224110540587</v>
       </c>
       <c r="E103">
-        <v>0.00558410919389696</v>
+        <v>-0.01955064924813347</v>
       </c>
       <c r="F103">
-        <v>-0.01928757675405339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01774206155892236</v>
+      </c>
+      <c r="G103">
+        <v>0.01707165325712224</v>
+      </c>
+      <c r="H103">
+        <v>-0.009431331232294926</v>
+      </c>
+      <c r="I103">
+        <v>0.01586383122370039</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
